--- a/Estimation/COCOMO values V2.xlsx
+++ b/Estimation/COCOMO values V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheffieldhallam-my.sharepoint.com/personal/c3026923_hallam_shu_ac_uk/Documents/year3/management-of-it-projects/assessment/Week 4 Estimation and Managing Risk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="846" documentId="8_{1936314A-44B8-4736-9CF3-D4D9C05AC55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B9C1419-29CB-432B-A24A-1E99832DCEEB}"/>
+  <xr:revisionPtr revIDLastSave="937" documentId="8_{1936314A-44B8-4736-9CF3-D4D9C05AC55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4A37106-6F1B-47FB-BE71-1E3A79D2F243}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{B4D5FC0D-E702-4523-8331-7B84D6BD8FED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="6" xr2:uid="{B4D5FC0D-E702-4523-8331-7B84D6BD8FED}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated Values" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Platform Factors" sheetId="7" r:id="rId4"/>
     <sheet name="Personnel Factors" sheetId="8" r:id="rId5"/>
     <sheet name="Project Factors" sheetId="9" r:id="rId6"/>
+    <sheet name="Graph (Acquisition Phase Distri" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="239">
   <si>
     <t>Estimated Values</t>
   </si>
@@ -787,13 +788,37 @@
   </si>
   <si>
     <t>Forced values in order to get close to a 3-month window for schedule</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Effort (Person-months)</t>
+  </si>
+  <si>
+    <t>Schedule (Months)</t>
+  </si>
+  <si>
+    <t>Average Staff</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>Elaboration</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Transition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,6 +853,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00309A"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -930,7 +976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1028,6 +1074,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1246,6 +1295,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00309A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1255,6 +1309,1248 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2800"/>
+              <a:t>Acquisition Phase Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graph (Acquisition Phase Distri'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Effort (Person-months)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Graph (Acquisition Phase Distri'!$B$3:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inception</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elaboration</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Construction</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graph (Acquisition Phase Distri'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66CC-4A73-8F5D-25FC2E6B4BD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graph (Acquisition Phase Distri'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Schedule (Months)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Graph (Acquisition Phase Distri'!$B$3:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inception</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elaboration</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Construction</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graph (Acquisition Phase Distri'!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66CC-4A73-8F5D-25FC2E6B4BD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graph (Acquisition Phase Distri'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Staff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Graph (Acquisition Phase Distri'!$B$3:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inception</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elaboration</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Construction</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graph (Acquisition Phase Distri'!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-66CC-4A73-8F5D-25FC2E6B4BD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="125456111"/>
+        <c:axId val="125455631"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="125456111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125455631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="125455631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125456111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>566938</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A657526-3385-0783-F632-6DFEE1DED479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1593,7 +2889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0F79B2-552B-47A4-A8EE-BF19A6A6D384}">
   <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3943,4 +5239,97 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142D28AB-C514-47BC-93F2-6AB14210B904}">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>